--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -699,7 +699,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -763,7 +763,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1448,7 +1448,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1768,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2197,7 +2197,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2261,7 +2261,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2517,7 +2517,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2946,7 +2946,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3010,7 +3010,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3266,7 +3266,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3529,13 +3529,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3593,13 +3593,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3695,7 +3695,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3759,7 +3759,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3785,13 +3785,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3881,13 +3881,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -4015,7 +4015,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4348,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4444,7 +4444,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4508,7 +4508,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4636,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4700,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4764,7 +4764,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5193,7 +5193,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5257,7 +5257,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5385,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5513,7 +5513,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -5545,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5641,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5846,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5942,7 +5942,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6006,7 +6006,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6198,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -6262,7 +6262,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6691,7 +6691,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6755,7 +6755,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7011,7 +7011,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7043,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7139,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7280,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7440,7 +7440,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -7472,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7504,7 +7504,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7632,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7696,7 +7696,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7760,7 +7760,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7792,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7888,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8093,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8189,7 +8189,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8221,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8253,7 +8253,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -8285,7 +8285,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8381,7 +8381,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8445,7 +8445,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -8509,7 +8509,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -8842,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -8938,7 +8938,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -8970,7 +8970,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9002,7 +9002,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -9034,7 +9034,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -9130,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -9194,7 +9194,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9258,7 +9258,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -9290,7 +9290,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9518,16 +9518,16 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -9582,16 +9582,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -9687,7 +9687,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -9710,16 +9710,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9751,7 +9751,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -9774,16 +9774,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -9870,16 +9870,16 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -9934,16 +9934,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10007,7 +10007,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10030,16 +10030,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10126,16 +10126,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10267,16 +10267,16 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -10331,16 +10331,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -10436,7 +10436,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -10459,16 +10459,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -10500,7 +10500,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -10523,16 +10523,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -10619,16 +10619,16 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -10683,16 +10683,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10756,7 +10756,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10779,16 +10779,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10875,16 +10875,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -11089,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -11185,7 +11185,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -11217,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11249,7 +11249,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -11281,7 +11281,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -11441,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11505,7 +11505,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -11537,7 +11537,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>

--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3599,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4348,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4636,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4700,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5385,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5641,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5846,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6198,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7139,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7280,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7472,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7632,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7696,7 +7696,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7888,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8093,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8221,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8285,7 +8285,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8381,7 +8381,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8445,7 +8445,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -8842,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -8970,7 +8970,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9034,7 +9034,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -9130,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -9194,7 +9194,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9518,16 +9518,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -9582,16 +9582,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -9710,16 +9710,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9774,16 +9774,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -9870,16 +9870,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -9934,16 +9934,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10126,16 +10126,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10267,16 +10267,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -10331,16 +10331,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -10459,16 +10459,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -10523,16 +10523,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -10619,16 +10619,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -10683,16 +10683,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10875,16 +10875,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -11089,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -11217,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11281,7 +11281,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -11441,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>2</v>

--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3599,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4348,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4636,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4700,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5385,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5641,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5846,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6198,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7139,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7280,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7472,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7632,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7696,7 +7696,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7888,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8093,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8221,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8285,7 +8285,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8381,7 +8381,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8445,7 +8445,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -8842,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -8970,7 +8970,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9034,7 +9034,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -9130,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -9194,7 +9194,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9518,16 +9518,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -9582,16 +9582,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -9710,16 +9710,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9774,16 +9774,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -9870,16 +9870,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -9934,16 +9934,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10126,16 +10126,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10267,16 +10267,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -10331,16 +10331,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -10459,16 +10459,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -10523,16 +10523,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -10619,16 +10619,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -10683,16 +10683,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10875,16 +10875,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -11089,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -11217,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11281,7 +11281,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -11441,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>2</v>

--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -763,7 +763,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -923,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1448,7 +1448,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1768,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1928,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2197,7 +2197,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2261,7 +2261,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2485,7 +2485,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2517,7 +2517,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2581,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2677,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2818,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2882,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3010,7 +3010,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3170,7 +3170,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -3266,7 +3266,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3330,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3426,7 +3426,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3529,13 +3529,13 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>11</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>49</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3593,13 +3593,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3631,7 +3631,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3695,7 +3695,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3759,7 +3759,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3785,13 +3785,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3855,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3881,13 +3881,13 @@
         <v>2</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>11</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3919,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3945,13 +3945,13 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3977,13 +3977,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4015,7 +4015,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4079,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4137,13 +4137,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4169,13 +4169,13 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4316,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4380,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4444,7 +4444,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4508,7 +4508,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4604,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4636,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4668,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4700,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4732,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4764,7 +4764,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4828,7 +4828,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5129,7 +5129,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5257,7 +5257,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5385,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -5513,7 +5513,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -5545,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5577,7 +5577,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5641,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5814,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5846,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5878,7 +5878,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5942,7 +5942,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6006,7 +6006,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6166,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6198,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -6230,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -6262,7 +6262,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6422,7 +6422,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -6563,7 +6563,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6627,7 +6627,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6691,7 +6691,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6755,7 +6755,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -6819,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6915,7 +6915,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6979,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7011,7 +7011,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7043,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7075,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7139,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7171,7 +7171,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7280,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7312,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7376,7 +7376,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7440,7 +7440,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -7472,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7504,7 +7504,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -7536,7 +7536,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7568,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7600,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7632,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7664,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -7696,7 +7696,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7728,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7760,7 +7760,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7792,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7824,7 +7824,7 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -7888,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -7920,7 +7920,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8061,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -8093,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8125,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8189,7 +8189,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8221,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8253,7 +8253,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -8285,7 +8285,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8317,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8381,7 +8381,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8445,7 +8445,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -8477,7 +8477,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -8509,7 +8509,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -8605,7 +8605,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8669,7 +8669,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -8778,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -8810,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -8842,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -8874,7 +8874,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -8938,7 +8938,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -8970,7 +8970,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9002,7 +9002,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -9034,7 +9034,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -9066,7 +9066,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -9098,7 +9098,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -9130,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -9162,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -9194,7 +9194,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -9226,7 +9226,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -9258,7 +9258,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -9290,7 +9290,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -9322,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -9354,7 +9354,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -9386,7 +9386,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9418,7 +9418,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -9495,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -9518,16 +9518,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -9550,16 +9550,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -9582,16 +9582,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -9614,16 +9614,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -9646,16 +9646,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -9687,7 +9687,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -9710,16 +9710,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -9751,7 +9751,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -9774,16 +9774,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -9870,16 +9870,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -9902,16 +9902,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -9934,16 +9934,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -9966,16 +9966,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -10007,7 +10007,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10030,16 +10030,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10062,16 +10062,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -10126,16 +10126,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10158,16 +10158,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10267,16 +10267,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -10299,16 +10299,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -10331,16 +10331,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -10363,16 +10363,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -10395,16 +10395,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -10436,7 +10436,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -10459,16 +10459,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -10500,7 +10500,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -10523,16 +10523,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -10564,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -10619,16 +10619,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -10651,16 +10651,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -10683,16 +10683,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -10715,16 +10715,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -10756,7 +10756,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -10779,16 +10779,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -10811,16 +10811,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -10875,16 +10875,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -10907,16 +10907,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -11057,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11089,7 +11089,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -11121,7 +11121,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -11153,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11185,7 +11185,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -11217,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11249,7 +11249,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -11281,7 +11281,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -11313,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11345,7 +11345,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -11409,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -11441,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11473,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -11505,7 +11505,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -11537,7 +11537,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11569,7 +11569,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -11633,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -11665,7 +11665,7 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>13</v>

--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="32">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -5696,6 +5698,1504 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>76</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>76</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>46</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>46</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>63</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>67</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>48</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>48</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>48</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
@@ -8020,13 +9520,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -8052,13 +9552,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -8090,7 +9590,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -8122,7 +9622,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -8212,13 +9712,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -8308,13 +9808,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>38</v>
@@ -8340,13 +9840,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -8372,13 +9872,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -8404,13 +9904,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>21</v>
@@ -8468,13 +9968,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -8532,13 +10032,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -8564,13 +10064,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>27</v>
@@ -8596,13 +10096,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>25</v>
@@ -8628,13 +10128,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -8660,13 +10160,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>20</v>

--- a/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/2wise/0.95_worst_case.xlsx
@@ -500,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -660,16 +660,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -692,16 +692,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -756,16 +756,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -820,16 +820,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -916,16 +916,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -948,16 +948,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1012,16 +1012,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1076,16 +1076,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -1108,16 +1108,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1172,16 +1172,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1249,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1345,16 +1345,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1377,16 +1377,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1409,16 +1409,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1441,16 +1441,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1505,16 +1505,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1537,16 +1537,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1665,16 +1665,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1761,16 +1761,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1825,16 +1825,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1921,16 +1921,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1998,16 +1998,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2071,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2094,16 +2094,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2126,16 +2126,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2158,16 +2158,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2190,16 +2190,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -2286,16 +2286,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2414,16 +2414,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2455,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2510,16 +2510,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -2551,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2574,16 +2574,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2606,7 +2606,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2638,16 +2638,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2670,16 +2670,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -2747,16 +2747,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2779,16 +2779,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2843,16 +2843,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -2875,16 +2875,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2907,16 +2907,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2939,16 +2939,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2980,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3003,16 +3003,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3035,16 +3035,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3067,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3131,16 +3131,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3163,16 +3163,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3204,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -3259,16 +3259,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3323,16 +3323,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3355,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -3419,16 +3419,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -3496,16 +3496,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3528,16 +3528,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3569,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3592,16 +3592,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -3624,16 +3624,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3656,16 +3656,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3688,16 +3688,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3752,16 +3752,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -3784,16 +3784,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3816,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3880,16 +3880,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -3912,16 +3912,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -3947,13 +3947,13 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3979,13 +3979,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4008,16 +4008,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4072,16 +4072,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -4104,7 +4104,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4139,13 +4139,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -4168,16 +4168,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -4245,16 +4245,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -4318,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4341,16 +4341,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4373,16 +4373,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -4405,16 +4405,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4437,16 +4437,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4478,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4501,16 +4501,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4533,16 +4533,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4565,7 +4565,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4638,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -4661,16 +4661,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -4702,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -4725,16 +4725,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -4757,16 +4757,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -4798,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4821,16 +4821,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -4917,16 +4917,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -4994,16 +4994,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -5067,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5090,16 +5090,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5122,16 +5122,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5154,16 +5154,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5186,16 +5186,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5227,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5250,16 +5250,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5282,16 +5282,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -5314,7 +5314,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5410,16 +5410,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5451,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5474,16 +5474,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -5506,16 +5506,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5570,16 +5570,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -5602,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5666,16 +5666,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -5743,16 +5743,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5775,16 +5775,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -5807,16 +5807,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5839,16 +5839,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -5871,16 +5871,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -5903,16 +5903,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5935,16 +5935,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -5967,16 +5967,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -5999,16 +5999,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -6031,16 +6031,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -6063,16 +6063,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6095,16 +6095,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6127,16 +6127,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -6159,16 +6159,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -6191,16 +6191,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -6223,16 +6223,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -6255,16 +6255,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -6287,16 +6287,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -6319,16 +6319,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -6351,16 +6351,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -6383,16 +6383,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -6415,16 +6415,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -6492,16 +6492,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -6524,16 +6524,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -6556,16 +6556,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -6588,16 +6588,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -6620,16 +6620,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -6652,16 +6652,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6684,16 +6684,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -6716,16 +6716,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -6748,16 +6748,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -6780,16 +6780,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -6812,7 +6812,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6844,16 +6844,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -6876,16 +6876,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -6908,16 +6908,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -6940,16 +6940,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -6972,16 +6972,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -7004,16 +7004,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -7036,16 +7036,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -7068,16 +7068,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -7100,7 +7100,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7132,16 +7132,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -7164,16 +7164,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -7241,16 +7241,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7282,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -7314,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7337,16 +7337,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -7369,16 +7369,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -7401,16 +7401,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7433,16 +7433,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -7474,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7497,16 +7497,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -7529,16 +7529,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7561,7 +7561,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7634,7 +7634,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -7657,16 +7657,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -7689,16 +7689,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -7721,16 +7721,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -7753,16 +7753,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -7794,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7817,16 +7817,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -7849,7 +7849,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7890,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -7913,16 +7913,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -7990,16 +7990,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8063,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -8086,16 +8086,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8118,16 +8118,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -8150,16 +8150,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8182,16 +8182,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8223,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8246,16 +8246,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -8278,16 +8278,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -8310,7 +8310,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8319,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8351,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8383,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -8406,16 +8406,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -8438,16 +8438,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -8470,16 +8470,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -8502,16 +8502,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8566,16 +8566,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -8598,7 +8598,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8639,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8662,16 +8662,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -8739,16 +8739,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8780,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8812,7 +8812,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -8835,16 +8835,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -8867,16 +8867,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -8899,16 +8899,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8931,16 +8931,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -8972,7 +8972,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8995,16 +8995,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -9027,16 +9027,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -9059,16 +9059,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9100,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9132,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -9155,16 +9155,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -9187,16 +9187,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -9228,7 +9228,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -9251,16 +9251,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -9292,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9315,16 +9315,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -9347,16 +9347,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -9388,7 +9388,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -9411,16 +9411,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -9488,16 +9488,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9529,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -9561,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9584,16 +9584,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -9616,16 +9616,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -9648,16 +9648,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9680,16 +9680,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -9744,16 +9744,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -9776,16 +9776,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -9808,7 +9808,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9849,7 +9849,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9881,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -9904,16 +9904,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -9945,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -9977,7 +9977,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -10000,16 +10000,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -10041,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -10064,16 +10064,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -10096,7 +10096,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -10160,16 +10160,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -10237,16 +10237,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10269,16 +10269,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -10301,16 +10301,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -10333,16 +10333,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -10365,16 +10365,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -10397,16 +10397,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -10429,16 +10429,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -10461,16 +10461,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -10493,16 +10493,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -10525,16 +10525,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -10557,16 +10557,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -10589,16 +10589,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -10621,16 +10621,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -10653,16 +10653,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -10685,16 +10685,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -10717,16 +10717,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -10749,16 +10749,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -10781,16 +10781,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -10813,16 +10813,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -10845,16 +10845,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -10877,16 +10877,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -10909,16 +10909,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -10986,16 +10986,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -11018,16 +11018,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -11050,16 +11050,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -11082,16 +11082,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -11114,16 +11114,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -11146,16 +11146,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -11178,16 +11178,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -11210,16 +11210,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -11242,16 +11242,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -11274,16 +11274,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -11306,7 +11306,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11315,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11338,16 +11338,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -11370,16 +11370,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -11402,16 +11402,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -11434,16 +11434,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -11466,16 +11466,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -11498,16 +11498,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -11530,16 +11530,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -11562,16 +11562,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -11594,7 +11594,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11603,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -11626,16 +11626,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -11658,16 +11658,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -11735,16 +11735,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -11767,16 +11767,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>43</v>
@@ -11799,16 +11799,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -11831,16 +11831,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>67</v>
@@ -11863,16 +11863,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -11895,16 +11895,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -11927,16 +11927,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>44</v>
@@ -11959,16 +11959,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -11991,16 +11991,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>52</v>
@@ -12023,16 +12023,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -12055,7 +12055,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -12087,16 +12087,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -12119,16 +12119,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>44</v>
@@ -12151,16 +12151,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>45</v>
@@ -12183,16 +12183,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>39</v>
@@ -12215,16 +12215,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -12247,16 +12247,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>68</v>
@@ -12279,16 +12279,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -12311,16 +12311,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -12343,7 +12343,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -12375,16 +12375,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>42</v>
@@ -12407,16 +12407,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>44</v>
@@ -12484,16 +12484,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12525,7 +12525,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -12557,7 +12557,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12580,16 +12580,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -12612,16 +12612,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -12644,16 +12644,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12676,16 +12676,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -12717,7 +12717,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -12740,16 +12740,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -12772,16 +12772,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -12804,7 +12804,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -12900,16 +12900,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -12932,16 +12932,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -12964,16 +12964,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -12996,16 +12996,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>8</v>
@@ -13037,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13060,16 +13060,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -13092,7 +13092,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -13101,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -13133,7 +13133,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -13156,16 +13156,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>13</v>
